--- a/SellyExcel/6.9 테스트 통과/성능분석 시나리오.xlsx
+++ b/SellyExcel/6.9 테스트 통과/성능분석 시나리오.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/Project/IMQA-TestSelly/SellyExcel/6.9 테스트 통과/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B600EAF-3105-C946-B681-1E3899FA5750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F3ECF-2E4F-0147-A712-B08912CB4B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12920" yWindow="1740" windowWidth="27500" windowHeight="16440" xr2:uid="{9F801856-C6C1-6F48-849F-A68024CBC2EE}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>메모리</t>
   </si>
   <si>
-    <t>표시 위치(대)</t>
-  </si>
-  <si>
     <t>검증 지표</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
       <t xml:space="preserve"> 성능분석 시계열 성능 정보</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시 위치</t>
   </si>
 </sst>
 </file>
@@ -614,9 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13020E-D635-7745-992B-2F43D0D8D630}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -626,119 +624,119 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -749,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -760,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -771,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -782,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -793,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -804,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -815,148 +813,148 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="B62" t="s">
-        <v>28</v>
-      </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
